--- a/data/dem_clin_par.xlsx
+++ b/data/dem_clin_par.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellinares/Dropbox/viscalab/meta_contrast_scz/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6522BA-EB65-D945-8B05-5F899A10F287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394ED0BA-4854-FA42-88FE-80CE63A29910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8420" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="91">
   <si>
     <t>study</t>
   </si>
@@ -285,6 +285,30 @@
   </si>
   <si>
     <t>single stimulus</t>
+  </si>
+  <si>
+    <t>thre</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>log_cs</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>2022 Qian</t>
+  </si>
+  <si>
+    <t>luminance</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>37.9</t>
   </si>
 </sst>
 </file>
@@ -340,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -486,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -628,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA0AB5-81AC-D84B-B8A1-3CF80A0DB318}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +671,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,22 +733,28 @@
         <v>2</v>
       </c>
       <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -786,22 +816,28 @@
         <v>27</v>
       </c>
       <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2">
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -863,22 +899,28 @@
         <v>27</v>
       </c>
       <c r="U3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" t="s">
         <v>31</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>30</v>
       </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3">
+      <c r="X3">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -940,22 +982,28 @@
         <v>27</v>
       </c>
       <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
         <v>36</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>35</v>
       </c>
-      <c r="W4">
+      <c r="X4">
+        <v>17</v>
+      </c>
+      <c r="Y4">
         <v>3.7</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>126</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1017,22 +1065,28 @@
         <v>27</v>
       </c>
       <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" t="s">
         <v>36</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>35</v>
       </c>
-      <c r="W5">
+      <c r="X5">
+        <v>45</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>300</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1091,22 +1145,28 @@
         <v>27</v>
       </c>
       <c r="U6" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" t="s">
         <v>36</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>35</v>
       </c>
-      <c r="W6">
+      <c r="X6">
+        <v>75</v>
+      </c>
+      <c r="Y6">
         <v>13</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>500</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1168,22 +1228,28 @@
         <v>27</v>
       </c>
       <c r="U7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
         <v>36</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>35</v>
       </c>
-      <c r="W7">
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
         <v>13</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>500</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1245,22 +1311,28 @@
         <v>28</v>
       </c>
       <c r="U8" t="s">
+        <v>83</v>
+      </c>
+      <c r="V8" t="s">
         <v>36</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>35</v>
       </c>
-      <c r="W8">
+      <c r="X8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8">
         <v>10</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>300</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1322,22 +1394,28 @@
         <v>28</v>
       </c>
       <c r="U9" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9" t="s">
         <v>36</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>35</v>
       </c>
-      <c r="W9">
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9">
         <v>10</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>300</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1399,22 +1477,28 @@
         <v>27</v>
       </c>
       <c r="U10" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" t="s">
         <v>36</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>35</v>
       </c>
-      <c r="W10">
+      <c r="X10">
+        <v>35</v>
+      </c>
+      <c r="Y10">
         <v>19</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>300</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1476,22 +1560,28 @@
         <v>28</v>
       </c>
       <c r="U11" t="s">
+        <v>83</v>
+      </c>
+      <c r="V11" t="s">
         <v>36</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>35</v>
       </c>
-      <c r="W11">
+      <c r="X11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11">
         <v>10</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>300</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1553,22 +1643,28 @@
         <v>27</v>
       </c>
       <c r="U12" t="s">
+        <v>83</v>
+      </c>
+      <c r="V12" t="s">
         <v>47</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>35</v>
       </c>
-      <c r="W12">
+      <c r="X12">
+        <v>80</v>
+      </c>
+      <c r="Y12">
         <v>0.66600000000000004</v>
       </c>
-      <c r="X12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12">
+      <c r="Z12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1630,22 +1726,28 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>35</v>
       </c>
-      <c r="W13">
+      <c r="X13">
+        <v>100</v>
+      </c>
+      <c r="Y13">
         <v>4.03</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>32</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>1.425</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1707,22 +1809,28 @@
         <v>27</v>
       </c>
       <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
         <v>49</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>35</v>
       </c>
-      <c r="W14">
+      <c r="X14">
+        <v>100</v>
+      </c>
+      <c r="Y14">
         <v>4.03</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>500</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>1.425</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1784,22 +1892,28 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
         <v>36</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>35</v>
       </c>
-      <c r="W15">
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
         <v>13</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>500</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1861,22 +1975,28 @@
         <v>28</v>
       </c>
       <c r="U16" t="s">
+        <v>83</v>
+      </c>
+      <c r="V16" t="s">
         <v>36</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>35</v>
       </c>
-      <c r="W16">
+      <c r="X16">
+        <v>35</v>
+      </c>
+      <c r="Y16">
         <v>19</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>300</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1938,22 +2058,28 @@
         <v>27</v>
       </c>
       <c r="U17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V17" t="s">
         <v>47</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>35</v>
       </c>
-      <c r="W17">
+      <c r="X17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17">
         <v>8.3699999999999992</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>1000</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2015,22 +2141,28 @@
         <v>28</v>
       </c>
       <c r="U18" t="s">
+        <v>85</v>
+      </c>
+      <c r="V18" t="s">
         <v>49</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>35</v>
       </c>
-      <c r="W18">
+      <c r="X18">
+        <v>100</v>
+      </c>
+      <c r="Y18">
         <v>4.03</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>500</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>1.425</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2092,22 +2224,28 @@
         <v>28</v>
       </c>
       <c r="U19" t="s">
+        <v>85</v>
+      </c>
+      <c r="V19" t="s">
         <v>36</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>35</v>
       </c>
-      <c r="W19">
+      <c r="X19">
+        <v>35</v>
+      </c>
+      <c r="Y19">
         <v>13</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>300</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2169,22 +2307,28 @@
         <v>28</v>
       </c>
       <c r="U20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" t="s">
         <v>36</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>35</v>
       </c>
-      <c r="W20">
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20">
         <v>13</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>300</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2246,22 +2390,28 @@
         <v>28</v>
       </c>
       <c r="U21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
         <v>49</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>35</v>
       </c>
-      <c r="W21">
+      <c r="X21">
+        <v>100</v>
+      </c>
+      <c r="Y21">
         <v>4.03</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>32</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>1.425</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -2323,22 +2473,28 @@
         <v>28</v>
       </c>
       <c r="U22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" t="s">
         <v>49</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>35</v>
       </c>
-      <c r="W22">
+      <c r="X22">
+        <v>100</v>
+      </c>
+      <c r="Y22">
         <v>4.03</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>500</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>1.425</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2400,22 +2556,28 @@
         <v>27</v>
       </c>
       <c r="U23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V23" t="s">
         <v>82</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>35</v>
       </c>
-      <c r="W23">
+      <c r="X23">
+        <v>25</v>
+      </c>
+      <c r="Y23">
         <v>2.5</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>45</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2477,22 +2639,28 @@
         <v>27</v>
       </c>
       <c r="U24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
         <v>49</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>35</v>
       </c>
-      <c r="W24">
+      <c r="X24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24">
         <v>4.03</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>32</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>1.425</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2554,22 +2722,28 @@
         <v>28</v>
       </c>
       <c r="U25" t="s">
+        <v>84</v>
+      </c>
+      <c r="V25" t="s">
         <v>47</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>35</v>
       </c>
-      <c r="W25">
+      <c r="X25">
+        <v>31</v>
+      </c>
+      <c r="Y25">
         <v>8</v>
       </c>
-      <c r="X25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25">
+      <c r="Z25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2631,22 +2805,28 @@
         <v>65</v>
       </c>
       <c r="U26" t="s">
+        <v>85</v>
+      </c>
+      <c r="V26" t="s">
         <v>49</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>81</v>
       </c>
-      <c r="W26">
+      <c r="X26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26">
         <v>1.64</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>120</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2708,22 +2888,28 @@
         <v>27</v>
       </c>
       <c r="U27" t="s">
+        <v>85</v>
+      </c>
+      <c r="V27" t="s">
         <v>49</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>35</v>
       </c>
-      <c r="W27">
+      <c r="X27">
+        <v>84</v>
+      </c>
+      <c r="Y27">
         <v>4.24</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>126</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2785,22 +2971,28 @@
         <v>28</v>
       </c>
       <c r="U28" t="s">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s">
         <v>36</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>35</v>
       </c>
-      <c r="W28">
+      <c r="X28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y28">
         <v>7</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>2000</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2862,22 +3054,25 @@
         <v>27</v>
       </c>
       <c r="U29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V29" t="s">
         <v>49</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>35</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>4.03</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>32</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>1.425</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2939,22 +3134,28 @@
         <v>27</v>
       </c>
       <c r="U30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V30" t="s">
         <v>71</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>35</v>
       </c>
-      <c r="W30">
+      <c r="X30" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y30">
         <v>3.05</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>500</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3016,22 +3217,28 @@
         <v>27</v>
       </c>
       <c r="U31" t="s">
+        <v>84</v>
+      </c>
+      <c r="V31" t="s">
         <v>47</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>35</v>
       </c>
-      <c r="W31">
+      <c r="X31">
+        <v>80</v>
+      </c>
+      <c r="Y31">
         <v>3.92</v>
       </c>
-      <c r="X31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y31">
+      <c r="Z31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -3093,22 +3300,28 @@
         <v>28</v>
       </c>
       <c r="U32" t="s">
+        <v>85</v>
+      </c>
+      <c r="V32" t="s">
         <v>74</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>35</v>
       </c>
-      <c r="W32">
+      <c r="X32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y32">
         <v>9</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>500</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -3170,22 +3383,28 @@
         <v>27</v>
       </c>
       <c r="U33" t="s">
+        <v>85</v>
+      </c>
+      <c r="V33" t="s">
         <v>49</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>35</v>
       </c>
-      <c r="W33">
+      <c r="X33">
+        <v>50</v>
+      </c>
+      <c r="Y33">
         <v>5</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>600</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3247,22 +3466,28 @@
         <v>27</v>
       </c>
       <c r="U34" t="s">
+        <v>85</v>
+      </c>
+      <c r="V34" t="s">
         <v>49</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>35</v>
       </c>
-      <c r="W34">
+      <c r="X34">
+        <v>50</v>
+      </c>
+      <c r="Y34">
         <v>5</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>600</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -3324,22 +3549,28 @@
         <v>27</v>
       </c>
       <c r="U35" t="s">
+        <v>85</v>
+      </c>
+      <c r="V35" t="s">
         <v>49</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>35</v>
       </c>
-      <c r="W35">
+      <c r="X35">
+        <v>100</v>
+      </c>
+      <c r="Y35">
         <v>4.24</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>500</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3401,22 +3632,28 @@
         <v>65</v>
       </c>
       <c r="U36" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" t="s">
         <v>49</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>35</v>
       </c>
-      <c r="W36">
+      <c r="X36">
+        <v>59</v>
+      </c>
+      <c r="Y36">
         <v>6</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>550</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3478,19 +3715,108 @@
         <v>65</v>
       </c>
       <c r="U37" t="s">
+        <v>84</v>
+      </c>
+      <c r="V37" t="s">
         <v>49</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>35</v>
       </c>
-      <c r="W37" t="s">
-        <v>28</v>
-      </c>
       <c r="X37" t="s">
         <v>28</v>
       </c>
       <c r="Y37" t="s">
         <v>28</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H38">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I38">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N38">
+        <v>40.5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" t="s">
+        <v>84</v>
+      </c>
+      <c r="V38" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" t="s">
+        <v>35</v>
+      </c>
+      <c r="X38">
+        <v>100</v>
+      </c>
+      <c r="Y38">
+        <v>4.03</v>
+      </c>
+      <c r="Z38">
+        <v>500</v>
+      </c>
+      <c r="AA38">
+        <v>1.425</v>
       </c>
     </row>
   </sheetData>

--- a/data/dem_clin_par.xlsx
+++ b/data/dem_clin_par.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellinares/Dropbox/viscalab/meta_contrast_scz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellinares/Dropbox/viscalab/meta_contrast_scz_bull/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394ED0BA-4854-FA42-88FE-80CE63A29910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCC45F-5714-E54C-BBA2-5F9CEBFB96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
+    <workbookView xWindow="-9040" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="104">
   <si>
     <t>study</t>
   </si>
@@ -309,6 +309,45 @@
   </si>
   <si>
     <t>37.9</t>
+  </si>
+  <si>
+    <t>2006 Bidwell</t>
+  </si>
+  <si>
+    <t>2010 Brittain</t>
+  </si>
+  <si>
+    <t>20/25</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>2011 Chen</t>
+  </si>
+  <si>
+    <t>2013 Kelemen</t>
+  </si>
+  <si>
+    <t>2024 Kadivar</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>2016a Maher</t>
+  </si>
+  <si>
+    <t>2016b Maher</t>
+  </si>
+  <si>
+    <t>2013 Lima</t>
+  </si>
+  <si>
+    <t>20/60</t>
+  </si>
+  <si>
+    <t>2008 Martinez</t>
   </si>
 </sst>
 </file>
@@ -344,8 +383,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA0AB5-81AC-D84B-B8A1-3CF80A0DB318}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,233 +1789,233 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>28.7</v>
+        <v>39.5</v>
       </c>
       <c r="H14">
-        <v>38.299999999999997</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I14">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J14">
-        <v>1077.7</v>
+        <v>516</v>
       </c>
       <c r="K14">
-        <v>574</v>
+        <v>435</v>
       </c>
       <c r="L14">
-        <v>16.8</v>
+        <v>14.2</v>
       </c>
       <c r="M14">
-        <v>43.1</v>
-      </c>
-      <c r="N14">
-        <v>26.9</v>
-      </c>
-      <c r="O14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14">
-        <v>13.5</v>
-      </c>
-      <c r="Q14">
-        <v>13.9</v>
+        <v>20</v>
+      </c>
+      <c r="N14" s="1">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>38.4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
       </c>
       <c r="R14" t="s">
         <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
-      <c r="X14">
-        <v>100</v>
+      <c r="X14" t="s">
+        <v>28</v>
       </c>
       <c r="Y14">
-        <v>4.03</v>
+        <v>10</v>
       </c>
       <c r="Z14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA14">
-        <v>1.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>36.5</v>
+        <v>28.7</v>
       </c>
       <c r="H15">
-        <v>36.200000000000003</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="I15">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>1077.7</v>
+      </c>
+      <c r="K15">
+        <v>574</v>
+      </c>
+      <c r="L15">
+        <v>16.8</v>
+      </c>
+      <c r="M15">
+        <v>43.1</v>
+      </c>
+      <c r="N15">
+        <v>26.9</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
       </c>
       <c r="P15">
-        <v>13.94</v>
+        <v>13.5</v>
       </c>
       <c r="Q15">
-        <v>18.46</v>
-      </c>
-      <c r="R15">
-        <v>36.950000000000003</v>
+        <v>13.9</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T15" t="s">
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W15" t="s">
         <v>35</v>
       </c>
       <c r="X15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Y15">
-        <v>13</v>
+        <v>4.03</v>
       </c>
       <c r="Z15">
         <v>500</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>40.700000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="H16">
-        <v>38.200000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I16">
-        <v>23</v>
-      </c>
-      <c r="J16">
-        <v>388</v>
-      </c>
-      <c r="K16">
-        <v>442</v>
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
       </c>
       <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="M16">
-        <v>23.1</v>
-      </c>
-      <c r="N16">
-        <v>33.1</v>
-      </c>
-      <c r="O16">
-        <v>43</v>
-      </c>
-      <c r="P16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" t="s">
-        <v>28</v>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16">
+        <v>13.94</v>
+      </c>
+      <c r="Q16">
+        <v>18.46</v>
+      </c>
+      <c r="R16">
+        <v>36.950000000000003</v>
       </c>
       <c r="S16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -1984,13 +2024,13 @@
         <v>35</v>
       </c>
       <c r="X16">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z16">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1998,82 +2038,82 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>36.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H17">
-        <v>34.799999999999997</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17">
-        <v>15.2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>388</v>
+      </c>
+      <c r="K17">
+        <v>442</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>23.1</v>
+      </c>
+      <c r="N17">
+        <v>33.1</v>
+      </c>
+      <c r="O17">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>28</v>
       </c>
       <c r="R17" t="s">
         <v>28</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U17" t="s">
         <v>83</v>
       </c>
       <c r="V17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="W17" t="s">
         <v>35</v>
       </c>
-      <c r="X17" t="s">
-        <v>28</v>
+      <c r="X17">
+        <v>35</v>
       </c>
       <c r="Y17">
-        <v>8.3699999999999992</v>
+        <v>19</v>
       </c>
       <c r="Z17">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2081,40 +2121,40 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>36.6</v>
       </c>
       <c r="H18">
-        <v>36.200000000000003</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="I18">
-        <v>26</v>
-      </c>
-      <c r="J18">
-        <v>1170</v>
-      </c>
-      <c r="K18">
-        <v>102.3</v>
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>15.2</v>
       </c>
       <c r="M18" t="s">
         <v>28</v>
@@ -2122,82 +2162,82 @@
       <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="O18">
-        <v>42.1</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>28</v>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
       </c>
       <c r="R18" t="s">
         <v>28</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="T18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W18" t="s">
         <v>35</v>
       </c>
-      <c r="X18">
-        <v>100</v>
+      <c r="X18" t="s">
+        <v>28</v>
       </c>
       <c r="Y18">
-        <v>4.03</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="Z18">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA18">
-        <v>1.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>40.299999999999997</v>
+        <v>36</v>
       </c>
       <c r="I19">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J19">
-        <v>537.20000000000005</v>
+        <v>1326.7</v>
       </c>
       <c r="K19">
-        <v>358.1</v>
+        <v>641</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="M19" t="s">
         <v>28</v>
@@ -2205,103 +2245,103 @@
       <c r="N19" t="s">
         <v>28</v>
       </c>
-      <c r="O19" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19">
-        <v>15.8</v>
-      </c>
-      <c r="Q19">
-        <v>13.6</v>
-      </c>
-      <c r="R19">
-        <v>29.4</v>
+      <c r="O19">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
         <v>28</v>
       </c>
       <c r="U19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V19" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W19" t="s">
         <v>35</v>
       </c>
-      <c r="X19">
-        <v>35</v>
+      <c r="X19" t="s">
+        <v>28</v>
       </c>
       <c r="Y19">
-        <v>13</v>
+        <v>4.03</v>
       </c>
       <c r="Z19">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>36.6</v>
+      </c>
+      <c r="H20">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <v>1170</v>
+      </c>
+      <c r="K20">
+        <v>102.3</v>
+      </c>
+      <c r="L20">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="H20">
-        <v>41.8</v>
-      </c>
-      <c r="I20">
-        <v>32</v>
-      </c>
-      <c r="J20">
-        <v>565.9</v>
-      </c>
-      <c r="K20">
-        <v>349.7</v>
-      </c>
-      <c r="L20">
-        <v>18.899999999999999</v>
-      </c>
       <c r="M20" t="s">
         <v>28</v>
       </c>
       <c r="N20" t="s">
         <v>28</v>
       </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20">
-        <v>15.5</v>
-      </c>
-      <c r="Q20">
-        <v>16.8</v>
-      </c>
-      <c r="R20">
-        <v>31.1</v>
+      <c r="O20">
+        <v>42.1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
         <v>28</v>
@@ -2310,60 +2350,60 @@
         <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W20" t="s">
         <v>35</v>
       </c>
-      <c r="X20" t="s">
-        <v>28</v>
+      <c r="X20">
+        <v>100</v>
       </c>
       <c r="Y20">
-        <v>13</v>
+        <v>4.03</v>
       </c>
       <c r="Z20">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
         <v>17</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
       <c r="G21">
-        <v>36.5</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>36.4</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J21">
-        <v>1195.3</v>
+        <v>537.20000000000005</v>
       </c>
       <c r="K21">
-        <v>133.19999999999999</v>
+        <v>358.1</v>
       </c>
       <c r="L21">
-        <v>16.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
         <v>28</v>
@@ -2371,20 +2411,20 @@
       <c r="N21" t="s">
         <v>28</v>
       </c>
-      <c r="O21">
-        <v>45.5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" t="s">
-        <v>28</v>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21">
+        <v>15.8</v>
+      </c>
+      <c r="Q21">
+        <v>13.6</v>
+      </c>
+      <c r="R21">
+        <v>29.4</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="T21" t="s">
         <v>28</v>
@@ -2393,60 +2433,60 @@
         <v>85</v>
       </c>
       <c r="V21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s">
         <v>35</v>
       </c>
       <c r="X21">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="Y21">
-        <v>4.03</v>
+        <v>13</v>
       </c>
       <c r="Z21">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="AA21">
-        <v>1.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>36.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H22">
-        <v>37.299999999999997</v>
+        <v>41.8</v>
       </c>
       <c r="I22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J22">
-        <v>1163.9000000000001</v>
+        <v>565.9</v>
       </c>
       <c r="K22">
-        <v>87.4</v>
+        <v>349.7</v>
       </c>
       <c r="L22">
-        <v>17.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M22" t="s">
         <v>28</v>
@@ -2454,82 +2494,82 @@
       <c r="N22" t="s">
         <v>28</v>
       </c>
-      <c r="O22">
-        <v>40.9</v>
-      </c>
-      <c r="P22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" t="s">
-        <v>28</v>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>15.5</v>
+      </c>
+      <c r="Q22">
+        <v>16.8</v>
+      </c>
+      <c r="R22">
+        <v>31.1</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22" t="s">
         <v>28</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="W22" t="s">
         <v>35</v>
       </c>
-      <c r="X22">
-        <v>100</v>
+      <c r="X22" t="s">
+        <v>28</v>
       </c>
       <c r="Y22">
-        <v>4.03</v>
+        <v>13</v>
       </c>
       <c r="Z22">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA22">
-        <v>1.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>24.2</v>
+        <v>36.5</v>
       </c>
       <c r="H23">
-        <v>25.7</v>
+        <v>36.4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1195.3</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>28</v>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="L23">
+        <v>16.100000000000001</v>
       </c>
       <c r="M23" t="s">
         <v>28</v>
@@ -2537,91 +2577,91 @@
       <c r="N23" t="s">
         <v>28</v>
       </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23">
-        <v>16.8</v>
-      </c>
-      <c r="Q23">
-        <v>11.4</v>
-      </c>
-      <c r="R23">
-        <v>33.6</v>
+      <c r="O23">
+        <v>45.5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U23" t="s">
         <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="W23" t="s">
         <v>35</v>
       </c>
       <c r="X23">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="Y23">
-        <v>2.5</v>
+        <v>4.03</v>
       </c>
       <c r="Z23">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G24">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="H24">
-        <v>33.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>1241.3</v>
+        <v>1163.9000000000001</v>
       </c>
       <c r="K24">
-        <v>122.2</v>
+        <v>87.4</v>
       </c>
       <c r="L24">
-        <v>14.5</v>
-      </c>
-      <c r="M24">
-        <v>49.1</v>
-      </c>
-      <c r="N24">
-        <v>21.5</v>
+        <v>17.3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
       </c>
       <c r="O24">
-        <v>40</v>
+        <v>40.9</v>
       </c>
       <c r="P24" t="s">
         <v>28</v>
@@ -2633,13 +2673,13 @@
         <v>28</v>
       </c>
       <c r="S24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V24" t="s">
         <v>49</v>
@@ -2647,14 +2687,14 @@
       <c r="W24" t="s">
         <v>35</v>
       </c>
-      <c r="X24" t="s">
-        <v>28</v>
+      <c r="X24">
+        <v>100</v>
       </c>
       <c r="Y24">
         <v>4.03</v>
       </c>
       <c r="Z24">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AA24">
         <v>1.425</v>
@@ -2662,79 +2702,79 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>38.6</v>
+        <v>41.29</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>41.89</v>
       </c>
       <c r="I25">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="J25">
-        <v>367.17200000000003</v>
+        <v>461.95</v>
       </c>
       <c r="K25">
-        <v>189.1576</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25">
-        <v>35.6</v>
-      </c>
-      <c r="N25">
-        <v>32.998399999999997</v>
-      </c>
-      <c r="O25">
-        <v>42.9</v>
-      </c>
-      <c r="P25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>28</v>
+        <v>381.61</v>
+      </c>
+      <c r="L25">
+        <v>18.41</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>13.52</v>
+      </c>
+      <c r="Q25">
+        <v>14.36</v>
       </c>
       <c r="R25" t="s">
         <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="T25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V25" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="W25" t="s">
         <v>35</v>
       </c>
       <c r="X25">
-        <v>31</v>
+        <v>87.7</v>
       </c>
       <c r="Y25">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="Z25" t="s">
         <v>28</v>
@@ -2745,37 +2785,37 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>33.799999999999997</v>
+        <v>24.2</v>
       </c>
       <c r="H26">
-        <v>35.700000000000003</v>
+        <v>25.7</v>
       </c>
       <c r="I26">
-        <v>45</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
       <c r="L26" t="s">
         <v>28</v>
@@ -2789,171 +2829,171 @@
       <c r="O26" t="s">
         <v>28</v>
       </c>
-      <c r="P26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26" t="s">
-        <v>28</v>
+      <c r="P26">
+        <v>16.8</v>
+      </c>
+      <c r="Q26">
+        <v>11.4</v>
+      </c>
+      <c r="R26">
+        <v>33.6</v>
       </c>
       <c r="S26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="U26" t="s">
         <v>85</v>
       </c>
       <c r="V26" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>81</v>
-      </c>
-      <c r="X26" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="X26">
+        <v>25</v>
       </c>
       <c r="Y26">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="Z26">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AA26">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
       <c r="G27">
-        <v>36.869999999999997</v>
+        <v>41.5</v>
       </c>
       <c r="H27">
-        <v>40.4</v>
+        <v>42.5</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J27">
-        <v>783.33</v>
+        <v>502</v>
       </c>
       <c r="K27">
-        <v>611.54</v>
-      </c>
-      <c r="L27">
-        <v>14.58</v>
-      </c>
-      <c r="M27">
-        <v>44.57</v>
-      </c>
-      <c r="N27">
-        <v>23.31</v>
+        <v>415</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
       </c>
-      <c r="P27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27" t="s">
-        <v>28</v>
+      <c r="P27">
+        <v>15.4</v>
+      </c>
+      <c r="Q27">
+        <v>14.4</v>
+      </c>
+      <c r="R27">
+        <v>28.4</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="T27" t="s">
         <v>27</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="W27" t="s">
         <v>35</v>
       </c>
-      <c r="X27">
-        <v>84</v>
+      <c r="X27" t="s">
+        <v>28</v>
       </c>
       <c r="Y27">
-        <v>4.24</v>
+        <v>19</v>
       </c>
       <c r="Z27">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>32.200000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="H28">
-        <v>33.700000000000003</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1241.3</v>
+      </c>
+      <c r="K28">
+        <v>122.2</v>
+      </c>
+      <c r="L28">
+        <v>14.5</v>
+      </c>
+      <c r="M28">
+        <v>49.1</v>
+      </c>
+      <c r="N28">
+        <v>21.5</v>
+      </c>
+      <c r="O28">
+        <v>40</v>
       </c>
       <c r="P28" t="s">
         <v>28</v>
@@ -2968,87 +3008,87 @@
         <v>34</v>
       </c>
       <c r="T28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U28" t="s">
         <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="W28" t="s">
         <v>35</v>
       </c>
       <c r="X28" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="Y28">
-        <v>7</v>
+        <v>4.03</v>
       </c>
       <c r="Z28">
-        <v>2000</v>
+        <v>32</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>32.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="H29">
-        <v>39.4</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I29">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J29">
-        <v>1314.1</v>
+        <v>367.5</v>
       </c>
       <c r="K29">
-        <v>973.5</v>
+        <v>242.56</v>
       </c>
       <c r="L29">
-        <v>18.5</v>
-      </c>
-      <c r="M29">
-        <v>50.5</v>
-      </c>
-      <c r="N29">
-        <v>26.3</v>
+        <v>14.32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
       </c>
-      <c r="P29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>28</v>
+      <c r="P29">
+        <v>18.38</v>
+      </c>
+      <c r="Q29">
+        <v>19.760000000000002</v>
       </c>
       <c r="R29" t="s">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="T29" t="s">
         <v>27</v>
@@ -3057,57 +3097,60 @@
         <v>84</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W29" t="s">
         <v>35</v>
       </c>
-      <c r="Y29">
-        <v>4.03</v>
-      </c>
-      <c r="Z29">
-        <v>32</v>
-      </c>
-      <c r="AA29">
-        <v>1.425</v>
+      <c r="X29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <v>39.700000000000003</v>
+        <v>44.1</v>
       </c>
       <c r="H30">
-        <v>39.19</v>
+        <v>42.7</v>
       </c>
       <c r="I30">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>638.18899999999996</v>
+        <v>455</v>
       </c>
       <c r="K30">
-        <v>408.28</v>
+        <v>185.4</v>
       </c>
       <c r="L30">
-        <v>19.899999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="M30" t="s">
         <v>28</v>
@@ -3115,91 +3158,88 @@
       <c r="N30" t="s">
         <v>28</v>
       </c>
-      <c r="O30" t="s">
-        <v>28</v>
-      </c>
       <c r="P30">
-        <v>14.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q30">
-        <v>20.61</v>
+        <v>19.8</v>
       </c>
       <c r="R30">
-        <v>33.61</v>
+        <v>49.7</v>
       </c>
       <c r="S30" t="s">
         <v>34</v>
       </c>
       <c r="T30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U30" t="s">
         <v>84</v>
       </c>
       <c r="V30" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="W30" t="s">
         <v>35</v>
       </c>
-      <c r="X30" t="s">
-        <v>90</v>
+      <c r="X30">
+        <v>5</v>
       </c>
       <c r="Y30">
-        <v>3.05</v>
-      </c>
-      <c r="Z30">
-        <v>500</v>
+        <v>8</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>28</v>
       </c>
       <c r="AA30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>36</v>
+        <v>38.6</v>
       </c>
       <c r="H31">
-        <v>37.700000000000003</v>
+        <v>40</v>
       </c>
       <c r="I31">
-        <v>45</v>
-      </c>
-      <c r="J31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31">
-        <v>7.62</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
+        <v>125</v>
+      </c>
+      <c r="J31">
+        <v>367.17200000000003</v>
+      </c>
+      <c r="K31">
+        <v>189.1576</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>35.6</v>
+      </c>
+      <c r="N31">
+        <v>32.998399999999997</v>
+      </c>
+      <c r="O31">
+        <v>42.9</v>
       </c>
       <c r="P31" t="s">
         <v>28</v>
@@ -3214,7 +3254,7 @@
         <v>34</v>
       </c>
       <c r="T31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U31" t="s">
         <v>84</v>
@@ -3226,10 +3266,10 @@
         <v>35</v>
       </c>
       <c r="X31">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="Y31">
-        <v>3.92</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="s">
         <v>28</v>
@@ -3240,37 +3280,37 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F32">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>39.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H32">
-        <v>37.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="I32">
-        <v>71</v>
-      </c>
-      <c r="J32">
-        <v>430.3</v>
-      </c>
-      <c r="K32">
-        <v>333.6</v>
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
       </c>
       <c r="L32" t="s">
         <v>28</v>
@@ -3284,8 +3324,8 @@
       <c r="O32" t="s">
         <v>28</v>
       </c>
-      <c r="P32">
-        <v>19.89</v>
+      <c r="P32" t="s">
+        <v>28</v>
       </c>
       <c r="Q32" t="s">
         <v>28</v>
@@ -3294,78 +3334,78 @@
         <v>28</v>
       </c>
       <c r="S32" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="T32" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="U32" t="s">
         <v>85</v>
       </c>
       <c r="V32" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="W32" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s">
         <v>28</v>
       </c>
       <c r="Y32">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="Z32">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>35.4</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="H33">
-        <v>36.75</v>
+        <v>40.4</v>
       </c>
       <c r="I33">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J33">
-        <v>390.01499999999999</v>
+        <v>783.33</v>
       </c>
       <c r="K33">
-        <v>152</v>
+        <v>611.54</v>
       </c>
       <c r="L33">
-        <v>11.4</v>
-      </c>
-      <c r="M33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33">
-        <v>42.95</v>
+        <v>14.58</v>
+      </c>
+      <c r="M33">
+        <v>44.57</v>
+      </c>
+      <c r="N33">
+        <v>23.31</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
       </c>
       <c r="P33" t="s">
         <v>28</v>
@@ -3377,7 +3417,7 @@
         <v>28</v>
       </c>
       <c r="S33" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
         <v>27</v>
@@ -3392,54 +3432,54 @@
         <v>35</v>
       </c>
       <c r="X33">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="Y33">
-        <v>5</v>
+        <v>4.24</v>
       </c>
       <c r="Z33">
-        <v>600</v>
+        <v>126</v>
       </c>
       <c r="AA33">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>36.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H34">
-        <v>36.049999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="I34">
-        <v>50</v>
-      </c>
-      <c r="J34">
-        <v>546.5</v>
-      </c>
-      <c r="K34">
-        <v>404</v>
-      </c>
-      <c r="L34">
-        <v>14.7</v>
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
       </c>
       <c r="M34" t="s">
         <v>28</v>
@@ -3447,8 +3487,8 @@
       <c r="N34" t="s">
         <v>28</v>
       </c>
-      <c r="O34">
-        <v>41.36</v>
+      <c r="O34" t="s">
+        <v>28</v>
       </c>
       <c r="P34" t="s">
         <v>28</v>
@@ -3460,96 +3500,96 @@
         <v>28</v>
       </c>
       <c r="S34" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U34" t="s">
         <v>85</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="W34" t="s">
         <v>35</v>
       </c>
-      <c r="X34">
-        <v>50</v>
+      <c r="X34" t="s">
+        <v>89</v>
       </c>
       <c r="Y34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z34">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="AA34">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>36.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H35">
-        <v>41.27</v>
+        <v>39.4</v>
       </c>
       <c r="I35">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J35">
-        <v>800</v>
+        <v>1314.1</v>
       </c>
       <c r="K35">
-        <v>572.29999999999995</v>
+        <v>973.5</v>
       </c>
       <c r="L35">
-        <v>14.4</v>
+        <v>18.5</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>50.5</v>
       </c>
       <c r="N35">
-        <v>23.9</v>
+        <v>26.3</v>
       </c>
       <c r="O35" t="s">
         <v>28</v>
       </c>
-      <c r="P35">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
-      </c>
-      <c r="R35">
-        <v>36.17</v>
+      <c r="P35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="T35" t="s">
         <v>27</v>
       </c>
       <c r="U35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V35" t="s">
         <v>49</v>
@@ -3557,55 +3597,52 @@
       <c r="W35" t="s">
         <v>35</v>
       </c>
-      <c r="X35">
-        <v>100</v>
-      </c>
       <c r="Y35">
-        <v>4.24</v>
+        <v>4.03</v>
       </c>
       <c r="Z35">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>21.4</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H36">
-        <v>21.3</v>
+        <v>39.19</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>638.18899999999996</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>28</v>
+        <v>408.28</v>
+      </c>
+      <c r="L36">
+        <v>19.899999999999999</v>
       </c>
       <c r="M36" t="s">
         <v>28</v>
@@ -3613,73 +3650,73 @@
       <c r="N36" t="s">
         <v>28</v>
       </c>
-      <c r="O36">
-        <v>35</v>
+      <c r="O36" t="s">
+        <v>28</v>
       </c>
       <c r="P36">
-        <v>8.6999999999999993</v>
+        <v>14.9</v>
       </c>
       <c r="Q36">
-        <v>7.2</v>
+        <v>20.61</v>
       </c>
       <c r="R36">
-        <v>55</v>
+        <v>33.61</v>
       </c>
       <c r="S36" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="U36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V36" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="W36" t="s">
         <v>35</v>
       </c>
-      <c r="X36">
-        <v>59</v>
+      <c r="X36" t="s">
+        <v>90</v>
       </c>
       <c r="Y36">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="Z36">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="AA36">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I37">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
@@ -3687,8 +3724,8 @@
       <c r="K37" t="s">
         <v>28</v>
       </c>
-      <c r="L37" t="s">
-        <v>28</v>
+      <c r="L37">
+        <v>7.62</v>
       </c>
       <c r="M37" t="s">
         <v>28</v>
@@ -3712,111 +3749,855 @@
         <v>34</v>
       </c>
       <c r="T37" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="U37" t="s">
         <v>84</v>
       </c>
       <c r="V37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W37" t="s">
         <v>35</v>
       </c>
-      <c r="X37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>28</v>
+      <c r="X37">
+        <v>80</v>
+      </c>
+      <c r="Y37">
+        <v>3.92</v>
       </c>
       <c r="Z37" t="s">
         <v>28</v>
       </c>
-      <c r="AA37" t="s">
-        <v>28</v>
+      <c r="AA37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <v>24</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>38.799999999999997</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="H38">
-        <v>37.700000000000003</v>
+        <v>44.83</v>
       </c>
       <c r="I38">
-        <v>24</v>
-      </c>
-      <c r="J38" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="N38">
-        <v>40.5</v>
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>579.4</v>
+      </c>
+      <c r="K38">
+        <v>579.6</v>
+      </c>
+      <c r="L38">
+        <v>23.9</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
       </c>
       <c r="O38" t="s">
         <v>28</v>
       </c>
-      <c r="P38" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R38" t="s">
-        <v>28</v>
+      <c r="P38">
+        <v>17.14</v>
+      </c>
+      <c r="Q38">
+        <v>13.68</v>
+      </c>
+      <c r="R38">
+        <v>30.36</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="T38" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="U38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V38" t="s">
         <v>49</v>
       </c>
       <c r="W38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y38">
+        <v>10</v>
+      </c>
+      <c r="Z38">
+        <v>300</v>
+      </c>
+      <c r="AA38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>41.35</v>
+      </c>
+      <c r="H39">
+        <v>47.75</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39">
+        <v>23.9</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39">
+        <v>17.28</v>
+      </c>
+      <c r="Q39">
+        <v>14.56</v>
+      </c>
+      <c r="R39">
+        <v>30</v>
+      </c>
+      <c r="S39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" t="s">
+        <v>65</v>
+      </c>
+      <c r="U39" t="s">
+        <v>83</v>
+      </c>
+      <c r="V39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W39" t="s">
+        <v>81</v>
+      </c>
+      <c r="X39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y39">
+        <v>10</v>
+      </c>
+      <c r="Z39">
+        <v>300</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>39.6</v>
+      </c>
+      <c r="H40">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I40">
+        <v>71</v>
+      </c>
+      <c r="J40">
+        <v>430.3</v>
+      </c>
+      <c r="K40">
+        <v>333.6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40">
+        <v>19.89</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T40" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" t="s">
+        <v>74</v>
+      </c>
+      <c r="W40" t="s">
         <v>35</v>
       </c>
-      <c r="X38">
+      <c r="X40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y40">
+        <v>9</v>
+      </c>
+      <c r="Z40">
+        <v>500</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>35.4</v>
+      </c>
+      <c r="H41">
+        <v>36.75</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>390.01499999999999</v>
+      </c>
+      <c r="K41">
+        <v>152</v>
+      </c>
+      <c r="L41">
+        <v>11.4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41">
+        <v>42.95</v>
+      </c>
+      <c r="P41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s">
+        <v>27</v>
+      </c>
+      <c r="U41" t="s">
+        <v>85</v>
+      </c>
+      <c r="V41" t="s">
+        <v>49</v>
+      </c>
+      <c r="W41" t="s">
+        <v>35</v>
+      </c>
+      <c r="X41">
+        <v>50</v>
+      </c>
+      <c r="Y41">
+        <v>5</v>
+      </c>
+      <c r="Z41">
+        <v>600</v>
+      </c>
+      <c r="AA41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>36.1</v>
+      </c>
+      <c r="H42">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>546.5</v>
+      </c>
+      <c r="K42">
+        <v>404</v>
+      </c>
+      <c r="L42">
+        <v>14.7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42">
+        <v>41.36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" t="s">
+        <v>85</v>
+      </c>
+      <c r="V42" t="s">
+        <v>49</v>
+      </c>
+      <c r="W42" t="s">
+        <v>35</v>
+      </c>
+      <c r="X42">
+        <v>50</v>
+      </c>
+      <c r="Y42">
+        <v>5</v>
+      </c>
+      <c r="Z42">
+        <v>600</v>
+      </c>
+      <c r="AA42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>36.9</v>
+      </c>
+      <c r="H43">
+        <v>41.27</v>
+      </c>
+      <c r="I43">
+        <v>67</v>
+      </c>
+      <c r="J43">
+        <v>800</v>
+      </c>
+      <c r="K43">
+        <v>572.29999999999995</v>
+      </c>
+      <c r="L43">
+        <v>14.4</v>
+      </c>
+      <c r="M43">
+        <v>45</v>
+      </c>
+      <c r="N43">
+        <v>23.9</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>17</v>
+      </c>
+      <c r="R43">
+        <v>36.17</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" t="s">
+        <v>85</v>
+      </c>
+      <c r="V43" t="s">
+        <v>49</v>
+      </c>
+      <c r="W43" t="s">
+        <v>35</v>
+      </c>
+      <c r="X43">
         <v>100</v>
       </c>
-      <c r="Y38">
+      <c r="Y43">
+        <v>4.24</v>
+      </c>
+      <c r="Z43">
+        <v>500</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>21.4</v>
+      </c>
+      <c r="H44">
+        <v>21.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44">
+        <v>35</v>
+      </c>
+      <c r="P44">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q44">
+        <v>7.2</v>
+      </c>
+      <c r="R44">
+        <v>55</v>
+      </c>
+      <c r="S44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s">
+        <v>65</v>
+      </c>
+      <c r="U44" t="s">
+        <v>85</v>
+      </c>
+      <c r="V44" t="s">
+        <v>49</v>
+      </c>
+      <c r="W44" t="s">
+        <v>35</v>
+      </c>
+      <c r="X44">
+        <v>59</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>550</v>
+      </c>
+      <c r="AA44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>36</v>
+      </c>
+      <c r="I45">
+        <v>68</v>
+      </c>
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" t="s">
+        <v>65</v>
+      </c>
+      <c r="U45" t="s">
+        <v>84</v>
+      </c>
+      <c r="V45" t="s">
+        <v>49</v>
+      </c>
+      <c r="W45" t="s">
+        <v>35</v>
+      </c>
+      <c r="X45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H46">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I46">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N46">
+        <v>40.5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" t="s">
+        <v>27</v>
+      </c>
+      <c r="U46" t="s">
+        <v>84</v>
+      </c>
+      <c r="V46" t="s">
+        <v>49</v>
+      </c>
+      <c r="W46" t="s">
+        <v>35</v>
+      </c>
+      <c r="X46">
+        <v>100</v>
+      </c>
+      <c r="Y46">
         <v>4.03</v>
       </c>
-      <c r="Z38">
+      <c r="Z46">
         <v>500</v>
       </c>
-      <c r="AA38">
+      <c r="AA46">
         <v>1.425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H47">
+        <v>21.6</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>28</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" t="s">
+        <v>65</v>
+      </c>
+      <c r="U47" t="s">
+        <v>85</v>
+      </c>
+      <c r="V47" t="s">
+        <v>49</v>
+      </c>
+      <c r="W47" t="s">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y47">
+        <v>1.64</v>
+      </c>
+      <c r="Z47">
+        <v>120</v>
+      </c>
+      <c r="AA47">
+        <v>2.2799999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/dem_clin_par.xlsx
+++ b/data/dem_clin_par.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellinares/Dropbox/viscalab/meta_contrast_scz_bull/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCC45F-5714-E54C-BBA2-5F9CEBFB96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC115A-9E23-7343-A25E-9B56A40E7E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9040" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
+    <workbookView xWindow="-11900" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{083F4844-E2BD-ED49-975A-EC605278F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>2013 Calderone</t>
   </si>
   <si>
-    <t>2013 Toscano</t>
-  </si>
-  <si>
     <t>2013 Martinez</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>2008 Martinez</t>
+  </si>
+  <si>
+    <t>2013 Nogueira</t>
   </si>
 </sst>
 </file>
@@ -383,9 +383,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,12 +701,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA0AB5-81AC-D84B-B8A1-3CF80A0DB318}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V1" t="s">
         <v>22</v>
@@ -782,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y1" t="s">
         <v>21</v>
@@ -856,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -939,7 +939,7 @@
         <v>27</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V3" t="s">
         <v>31</v>
@@ -1022,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V4" t="s">
         <v>36</v>
@@ -1105,7 +1105,7 @@
         <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V5" t="s">
         <v>36</v>
@@ -1185,7 +1185,7 @@
         <v>27</v>
       </c>
       <c r="U6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s">
         <v>36</v>
@@ -1268,7 +1268,7 @@
         <v>27</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
         <v>36</v>
@@ -1351,7 +1351,7 @@
         <v>28</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
         <v>36</v>
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="U9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
         <v>36</v>
@@ -1517,7 +1517,7 @@
         <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
         <v>36</v>
@@ -1600,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="U11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
         <v>36</v>
@@ -1683,7 +1683,7 @@
         <v>27</v>
       </c>
       <c r="U12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
         <v>47</v>
@@ -1766,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
         <v>49</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1827,7 +1827,7 @@
       <c r="M14">
         <v>20</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>25</v>
       </c>
       <c r="O14">
@@ -1849,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="U14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s">
         <v>36</v>
@@ -1932,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V15" t="s">
         <v>49</v>
@@ -2015,7 +2015,7 @@
         <v>27</v>
       </c>
       <c r="U16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s">
         <v>36</v>
@@ -2098,7 +2098,7 @@
         <v>28</v>
       </c>
       <c r="U17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s">
         <v>36</v>
@@ -2181,7 +2181,7 @@
         <v>27</v>
       </c>
       <c r="U18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s">
         <v>47</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -2264,7 +2264,7 @@
         <v>28</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V19" t="s">
         <v>49</v>
@@ -2347,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V20" t="s">
         <v>49</v>
@@ -2430,7 +2430,7 @@
         <v>28</v>
       </c>
       <c r="U21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V21" t="s">
         <v>36</v>
@@ -2513,7 +2513,7 @@
         <v>28</v>
       </c>
       <c r="U22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V22" t="s">
         <v>36</v>
@@ -2596,7 +2596,7 @@
         <v>28</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V23" t="s">
         <v>49</v>
@@ -2679,7 +2679,7 @@
         <v>28</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V24" t="s">
         <v>49</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -2756,16 +2756,16 @@
         <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T25" t="s">
         <v>27</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W25" t="s">
         <v>35</v>
@@ -2845,10 +2845,10 @@
         <v>27</v>
       </c>
       <c r="U26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s">
         <v>35</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2928,7 +2928,7 @@
         <v>27</v>
       </c>
       <c r="U27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s">
         <v>36</v>
@@ -3011,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="U28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V28" t="s">
         <v>49</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -3088,13 +3088,13 @@
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T29" t="s">
         <v>27</v>
       </c>
       <c r="U29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V29" t="s">
         <v>47</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -3174,7 +3174,7 @@
         <v>28</v>
       </c>
       <c r="U30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V30" t="s">
         <v>47</v>
@@ -3257,7 +3257,7 @@
         <v>28</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V31" t="s">
         <v>47</v>
@@ -3340,13 +3340,13 @@
         <v>65</v>
       </c>
       <c r="U32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V32" t="s">
         <v>49</v>
       </c>
       <c r="W32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s">
         <v>28</v>
@@ -3423,7 +3423,7 @@
         <v>27</v>
       </c>
       <c r="U33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V33" t="s">
         <v>49</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -3506,7 +3506,7 @@
         <v>28</v>
       </c>
       <c r="U34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V34" t="s">
         <v>36</v>
@@ -3515,7 +3515,7 @@
         <v>35</v>
       </c>
       <c r="X34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y34">
         <v>7</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -3589,7 +3589,7 @@
         <v>27</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V35" t="s">
         <v>49</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -3669,16 +3669,16 @@
         <v>27</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W36" t="s">
         <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y36">
         <v>3.05</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>27</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V37" t="s">
         <v>47</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38">
         <v>23</v>
@@ -3835,13 +3835,13 @@
         <v>65</v>
       </c>
       <c r="U38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s">
         <v>49</v>
       </c>
       <c r="W38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s">
         <v>28</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
@@ -3918,13 +3918,13 @@
         <v>65</v>
       </c>
       <c r="U39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s">
         <v>49</v>
       </c>
       <c r="W39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s">
         <v>28</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -4001,10 +4001,10 @@
         <v>28</v>
       </c>
       <c r="U40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s">
         <v>35</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -4078,13 +4078,13 @@
         <v>28</v>
       </c>
       <c r="S41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T41" t="s">
         <v>27</v>
       </c>
       <c r="U41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V41" t="s">
         <v>49</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -4161,13 +4161,13 @@
         <v>28</v>
       </c>
       <c r="S42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T42" t="s">
         <v>27</v>
       </c>
       <c r="U42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V42" t="s">
         <v>49</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -4250,7 +4250,7 @@
         <v>27</v>
       </c>
       <c r="U43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V43" t="s">
         <v>49</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -4327,13 +4327,13 @@
         <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T44" t="s">
         <v>65</v>
       </c>
       <c r="U44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V44" t="s">
         <v>49</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -4416,7 +4416,7 @@
         <v>65</v>
       </c>
       <c r="U45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V45" t="s">
         <v>49</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -4499,7 +4499,7 @@
         <v>27</v>
       </c>
       <c r="U46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V46" t="s">
         <v>49</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -4579,13 +4579,13 @@
         <v>65</v>
       </c>
       <c r="U47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V47" t="s">
         <v>49</v>
       </c>
       <c r="W47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s">
         <v>28</v>
